--- a/APM files/140291048/140291048 IMPORT 2 VID creation.xlsx
+++ b/APM files/140291048/140291048 IMPORT 2 VID creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/repositories/workspace/APM files/140291048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B3CAE-3CCB-234E-986A-450BC1456B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1285C0-9BA0-BA43-9923-D30CFD2724EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="186">
   <si>
     <t>Expedia ID</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>Wonderful Italy</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="M2:R9"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1184,6 +1187,12 @@
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" t="s">
+        <v>185</v>
+      </c>
       <c r="P2" t="s">
         <v>23</v>
       </c>
@@ -1226,6 +1235,12 @@
       <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" t="s">
+        <v>185</v>
+      </c>
       <c r="P3" t="s">
         <v>23</v>
       </c>
@@ -1268,6 +1283,12 @@
       <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N4" t="s">
+        <v>185</v>
+      </c>
       <c r="P4" t="s">
         <v>23</v>
       </c>
@@ -1310,6 +1331,12 @@
       <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" t="s">
+        <v>185</v>
+      </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
@@ -1352,6 +1379,12 @@
       <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N6" t="s">
+        <v>185</v>
+      </c>
       <c r="P6" t="s">
         <v>23</v>
       </c>
@@ -1394,6 +1427,12 @@
       <c r="L7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M7" t="s">
+        <v>185</v>
+      </c>
+      <c r="N7" t="s">
+        <v>185</v>
+      </c>
       <c r="P7" t="s">
         <v>23</v>
       </c>
@@ -1436,6 +1475,12 @@
       <c r="L8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N8" t="s">
+        <v>185</v>
+      </c>
       <c r="P8" t="s">
         <v>23</v>
       </c>
@@ -1478,6 +1523,12 @@
       <c r="L9" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" t="s">
+        <v>185</v>
+      </c>
       <c r="P9" t="s">
         <v>23</v>
       </c>
@@ -1520,6 +1571,12 @@
       <c r="L10" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M10" t="s">
+        <v>185</v>
+      </c>
+      <c r="N10" t="s">
+        <v>185</v>
+      </c>
       <c r="P10" t="s">
         <v>23</v>
       </c>
@@ -1562,6 +1619,12 @@
       <c r="L11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N11" t="s">
+        <v>185</v>
+      </c>
       <c r="P11" t="s">
         <v>23</v>
       </c>
@@ -1604,6 +1667,12 @@
       <c r="L12" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M12" t="s">
+        <v>185</v>
+      </c>
+      <c r="N12" t="s">
+        <v>185</v>
+      </c>
       <c r="P12" t="s">
         <v>23</v>
       </c>
@@ -1646,6 +1715,12 @@
       <c r="L13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M13" t="s">
+        <v>185</v>
+      </c>
+      <c r="N13" t="s">
+        <v>185</v>
+      </c>
       <c r="P13" t="s">
         <v>23</v>
       </c>
@@ -1688,6 +1763,12 @@
       <c r="L14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M14" t="s">
+        <v>185</v>
+      </c>
+      <c r="N14" t="s">
+        <v>185</v>
+      </c>
       <c r="P14" t="s">
         <v>23</v>
       </c>
@@ -1730,6 +1811,12 @@
       <c r="L15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M15" t="s">
+        <v>185</v>
+      </c>
+      <c r="N15" t="s">
+        <v>185</v>
+      </c>
       <c r="P15" t="s">
         <v>23</v>
       </c>
@@ -1772,6 +1859,12 @@
       <c r="L16" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M16" t="s">
+        <v>185</v>
+      </c>
+      <c r="N16" t="s">
+        <v>185</v>
+      </c>
       <c r="P16" t="s">
         <v>23</v>
       </c>
@@ -1814,6 +1907,12 @@
       <c r="L17" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M17" t="s">
+        <v>185</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
       <c r="P17" t="s">
         <v>23</v>
       </c>
@@ -1856,6 +1955,12 @@
       <c r="L18" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M18" t="s">
+        <v>185</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
       <c r="P18" t="s">
         <v>23</v>
       </c>
@@ -1898,6 +2003,12 @@
       <c r="L19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M19" t="s">
+        <v>185</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
       <c r="P19" t="s">
         <v>23</v>
       </c>
@@ -1940,6 +2051,12 @@
       <c r="L20" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M20" t="s">
+        <v>185</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
       <c r="P20" t="s">
         <v>23</v>
       </c>
@@ -1982,6 +2099,12 @@
       <c r="L21" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M21" t="s">
+        <v>185</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
       <c r="P21" t="s">
         <v>23</v>
       </c>
@@ -2024,6 +2147,12 @@
       <c r="L22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M22" t="s">
+        <v>185</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
       <c r="P22" t="s">
         <v>23</v>
       </c>
@@ -2066,6 +2195,12 @@
       <c r="L23" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M23" t="s">
+        <v>185</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
       <c r="P23" t="s">
         <v>23</v>
       </c>
@@ -2108,6 +2243,12 @@
       <c r="L24" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M24" t="s">
+        <v>185</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
       <c r="P24" t="s">
         <v>23</v>
       </c>
@@ -2150,6 +2291,12 @@
       <c r="L25" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M25" t="s">
+        <v>185</v>
+      </c>
+      <c r="N25" t="s">
+        <v>185</v>
+      </c>
       <c r="P25" t="s">
         <v>23</v>
       </c>
@@ -2192,6 +2339,12 @@
       <c r="L26" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
       <c r="P26" t="s">
         <v>23</v>
       </c>
@@ -2234,6 +2387,12 @@
       <c r="L27" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M27" t="s">
+        <v>185</v>
+      </c>
+      <c r="N27" t="s">
+        <v>185</v>
+      </c>
       <c r="P27" t="s">
         <v>23</v>
       </c>
@@ -2276,6 +2435,12 @@
       <c r="L28" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M28" t="s">
+        <v>185</v>
+      </c>
+      <c r="N28" t="s">
+        <v>185</v>
+      </c>
       <c r="P28" t="s">
         <v>23</v>
       </c>
@@ -2318,6 +2483,12 @@
       <c r="L29" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M29" t="s">
+        <v>185</v>
+      </c>
+      <c r="N29" t="s">
+        <v>185</v>
+      </c>
       <c r="P29" t="s">
         <v>23</v>
       </c>
@@ -2360,6 +2531,12 @@
       <c r="L30" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M30" t="s">
+        <v>185</v>
+      </c>
+      <c r="N30" t="s">
+        <v>185</v>
+      </c>
       <c r="P30" t="s">
         <v>23</v>
       </c>
@@ -2402,6 +2579,12 @@
       <c r="L31" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M31" t="s">
+        <v>185</v>
+      </c>
+      <c r="N31" t="s">
+        <v>185</v>
+      </c>
       <c r="P31" t="s">
         <v>23</v>
       </c>
@@ -2444,6 +2627,12 @@
       <c r="L32" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M32" t="s">
+        <v>185</v>
+      </c>
+      <c r="N32" t="s">
+        <v>185</v>
+      </c>
       <c r="P32" t="s">
         <v>23</v>
       </c>
@@ -2486,6 +2675,12 @@
       <c r="L33" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M33" t="s">
+        <v>185</v>
+      </c>
+      <c r="N33" t="s">
+        <v>185</v>
+      </c>
       <c r="P33" t="s">
         <v>23</v>
       </c>
@@ -2528,6 +2723,12 @@
       <c r="L34" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M34" t="s">
+        <v>185</v>
+      </c>
+      <c r="N34" t="s">
+        <v>185</v>
+      </c>
       <c r="P34" t="s">
         <v>23</v>
       </c>
@@ -2570,6 +2771,12 @@
       <c r="L35" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M35" t="s">
+        <v>185</v>
+      </c>
+      <c r="N35" t="s">
+        <v>185</v>
+      </c>
       <c r="P35" t="s">
         <v>23</v>
       </c>
@@ -2612,6 +2819,12 @@
       <c r="L36" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M36" t="s">
+        <v>185</v>
+      </c>
+      <c r="N36" t="s">
+        <v>185</v>
+      </c>
       <c r="P36" t="s">
         <v>23</v>
       </c>
@@ -2654,6 +2867,12 @@
       <c r="L37" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M37" t="s">
+        <v>185</v>
+      </c>
+      <c r="N37" t="s">
+        <v>185</v>
+      </c>
       <c r="P37" t="s">
         <v>23</v>
       </c>
@@ -2696,6 +2915,12 @@
       <c r="L38" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M38" t="s">
+        <v>185</v>
+      </c>
+      <c r="N38" t="s">
+        <v>185</v>
+      </c>
       <c r="P38" t="s">
         <v>23</v>
       </c>
@@ -2738,6 +2963,12 @@
       <c r="L39" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M39" t="s">
+        <v>185</v>
+      </c>
+      <c r="N39" t="s">
+        <v>185</v>
+      </c>
       <c r="P39" t="s">
         <v>23</v>
       </c>
@@ -2780,6 +3011,12 @@
       <c r="L40" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M40" t="s">
+        <v>185</v>
+      </c>
+      <c r="N40" t="s">
+        <v>185</v>
+      </c>
       <c r="P40" t="s">
         <v>23</v>
       </c>
@@ -2822,6 +3059,12 @@
       <c r="L41" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M41" t="s">
+        <v>185</v>
+      </c>
+      <c r="N41" t="s">
+        <v>185</v>
+      </c>
       <c r="P41" t="s">
         <v>23</v>
       </c>
@@ -2864,6 +3107,12 @@
       <c r="L42" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M42" t="s">
+        <v>185</v>
+      </c>
+      <c r="N42" t="s">
+        <v>185</v>
+      </c>
       <c r="P42" t="s">
         <v>23</v>
       </c>
@@ -2906,6 +3155,12 @@
       <c r="L43" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M43" t="s">
+        <v>185</v>
+      </c>
+      <c r="N43" t="s">
+        <v>185</v>
+      </c>
       <c r="P43" t="s">
         <v>23</v>
       </c>
@@ -2948,6 +3203,12 @@
       <c r="L44" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M44" t="s">
+        <v>185</v>
+      </c>
+      <c r="N44" t="s">
+        <v>185</v>
+      </c>
       <c r="P44" t="s">
         <v>23</v>
       </c>
@@ -2990,6 +3251,12 @@
       <c r="L45" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M45" t="s">
+        <v>185</v>
+      </c>
+      <c r="N45" t="s">
+        <v>185</v>
+      </c>
       <c r="P45" t="s">
         <v>23</v>
       </c>
@@ -3032,6 +3299,12 @@
       <c r="L46" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M46" t="s">
+        <v>185</v>
+      </c>
+      <c r="N46" t="s">
+        <v>185</v>
+      </c>
       <c r="P46" t="s">
         <v>23</v>
       </c>
@@ -3074,6 +3347,12 @@
       <c r="L47" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M47" t="s">
+        <v>185</v>
+      </c>
+      <c r="N47" t="s">
+        <v>185</v>
+      </c>
       <c r="P47" t="s">
         <v>23</v>
       </c>
@@ -3115,6 +3394,12 @@
       </c>
       <c r="L48" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="M48" t="s">
+        <v>185</v>
+      </c>
+      <c r="N48" t="s">
+        <v>185</v>
       </c>
       <c r="P48" t="s">
         <v>23</v>
